--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,55 +40,55 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>creepy</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>dangerous</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>dark</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>negative</t>
+    <t>fake</t>
   </si>
   <si>
     <t>amazing</t>
@@ -97,19 +97,19 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>important</t>
@@ -476,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,7 +484,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>34</v>
@@ -545,13 +545,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>25</v>
@@ -595,13 +595,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9134615384615384</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>26</v>
@@ -645,13 +645,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -663,19 +663,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K5">
-        <v>0.82</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +719,13 @@
         <v>28</v>
       </c>
       <c r="K6">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -745,13 +745,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -763,19 +763,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K7">
-        <v>0.6140350877192983</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -795,13 +795,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8181818181818182</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>30</v>
       </c>
       <c r="K8">
-        <v>0.5862068965517241</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -845,13 +845,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -863,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K9">
-        <v>0.5333333333333333</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -895,49 +895,49 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>14</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K10">
-        <v>0.5166666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="L10">
+        <v>29</v>
+      </c>
+      <c r="M10">
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>31</v>
-      </c>
-      <c r="M10">
-        <v>31</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -945,13 +945,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -963,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K11">
-        <v>0.05009107468123861</v>
+        <v>0.03460837887067395</v>
       </c>
       <c r="L11">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1043</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -995,13 +995,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5882352941176471</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1021,13 +1021,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1047,13 +1047,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4855072463768116</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1073,13 +1073,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.391304347826087</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1099,25 +1099,25 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3617021276595745</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>17</v>
-      </c>
-      <c r="D16">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1125,13 +1125,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2857142857142857</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1151,25 +1151,51 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2564102564102564</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="C19">
         <v>10</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>10</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>29</v>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
